--- a/Question_Set2/Role-specific skills/QA Tester Engineer.xlsx
+++ b/Question_Set2/Role-specific skills/QA Tester Engineer.xlsx
@@ -16,23 +16,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What is ‘bug severity’?', 'ques_type': 2, 'options': ['The degree of impact a defect has on the system.', 'The order in which a defect should be fixed.', 'The likelihood and the impact of the bug.', 'The cost of the impact combined with the cost to resolve the consequences of the impact.'], 'score': 'The degree of impact a defect has on the system.'}, {'title': 'A walkthrough is led by a trained moderator, whereas an inspection is led by the author.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'What is a typical objective of an unit test?', 'ques_type': 2, 'options': ['To validate that each unit of the software performs as designed.', 'To test all branches of the software program once.', 'To build confidence in the quality of interfaces.', 'To verify that the conditions match the product requirements.'], 'score': 'To validate that each unit of the software performs as designed.'}, {'title': 'Statement 1:Regression testing ensures the recent changes in the software code have not affected the unaltered sections. Retesting establishes that failed test cases are passed after the defect is fixed.Statement 2:Regression testing includes no defect verification, retesting does.Are the statements true or false?', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "What is \u2018bug severity\u2019?",
+        "ques_type": 2,
+        "options": [
+            "The degree of impact a defect has on the system.",
+            "The order in which a defect should be fixed.",
+            "The likelihood and the impact of the bug.",
+            "The cost of the impact combined with the cost to resolve the consequences of the impact."
+        ],
+        "score": "The degree of impact a defect has on the system."
+    },
+    {
+        "title": "A walkthrough is led by a trained moderator, whereas an inspection is led by the author.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "What is a typical objective of an unit test?",
+        "ques_type": 2,
+        "options": [
+            "To validate that each unit of the software performs as designed.",
+            "To test all branches of the software program once.",
+            "To build confidence in the quality of interfaces.",
+            "To verify that the conditions match the product requirements."
+        ],
+        "score": "To validate that each unit of the software performs as designed."
+    },
+    {
+        "title": "Statement 1:Regression testing ensures the recent changes in the software code have not affected the unaltered sections. Retesting establishes that failed test cases are passed after the defect is fixed.Statement 2:Regression testing includes no defect verification, retesting does.Are the statements true or false?",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +89,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +389,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
